--- a/Atmos_TERA_SCH_HE_MS_Source.xlsx
+++ b/Atmos_TERA_SCH_HE_MS_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a634b9d077ee98e5/Desktop/Shopify_CLI_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{21B7981A-F8FF-44DB-B150-4AF6A719DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81929BF7-B985-4CC5-8430-44BCB7982327}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{21B7981A-F8FF-44DB-B150-4AF6A719DC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDAF447-FEA7-5A5B-A161-F7B0CC5A45C9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{19387794-EAEA-45F9-9F5F-4F03D1C77D89}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Article Number</t>
   </si>
   <si>
-    <t>Motor_Voltage</t>
-  </si>
-  <si>
     <t>ODP / 230/460V</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Atmos TERA-SCH-HE ( Mechanical Seal)</t>
+  </si>
+  <si>
+    <t>Motor and  Voltage</t>
   </si>
 </sst>
 </file>
@@ -264,10 +264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +586,7 @@
   <dimension ref="A1:M466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,10 +641,10 @@
         <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -706,10 +702,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -767,10 +763,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -809,10 +805,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -851,10 +847,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -893,10 +889,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -935,10 +931,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -977,10 +973,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1019,10 +1015,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1061,10 +1057,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1103,10 +1099,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1145,10 +1141,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1187,10 +1183,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1229,10 +1225,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1271,10 +1267,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1313,10 +1309,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1355,10 +1351,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1397,10 +1393,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1439,10 +1435,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1481,10 +1477,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1523,10 +1519,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1565,10 +1561,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1607,10 +1603,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1649,10 +1645,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1691,10 +1687,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1733,10 +1729,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1775,10 +1771,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -1817,10 +1813,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -1859,10 +1855,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1901,10 +1897,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -1943,10 +1939,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -1985,10 +1981,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2027,10 +2023,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2069,10 +2065,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2111,10 +2107,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2153,10 +2149,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -2195,10 +2191,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -2237,10 +2233,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vcompletepump+motorodp460v</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -2279,10 +2275,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vcompletepump+motortefc460v</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -2321,10 +2317,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vcompletepump+motorodp460v</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -2363,10 +2359,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vcompletepump+motortefc460v</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2405,10 +2401,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -2447,10 +2443,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -2489,10 +2485,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -2531,10 +2527,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -2573,10 +2569,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -2615,10 +2611,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2657,10 +2653,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vcompletepump+motorodp460v</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2699,10 +2695,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vcompletepump+motortefc460v</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2741,10 +2737,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vcompletepump+motorodp460v</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2783,10 +2779,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vcompletepump+motortefc460v</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -2825,10 +2821,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -2867,10 +2863,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -2909,10 +2905,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -2951,10 +2947,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -2993,10 +2989,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vcompletepump+motorodp460v</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3035,10 +3031,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vcompletepump+motortefc460v</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3077,10 +3073,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -3119,10 +3115,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3161,10 +3157,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3203,10 +3199,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -3245,10 +3241,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -3287,10 +3283,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -3329,10 +3325,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -3371,10 +3367,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -3413,10 +3409,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -3474,10 +3470,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -3516,10 +3512,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -3558,10 +3554,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -3600,10 +3596,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -3642,10 +3638,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -3684,10 +3680,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -3726,10 +3722,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -3768,10 +3764,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -3810,10 +3806,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
@@ -3852,10 +3848,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -3894,10 +3890,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -3936,10 +3932,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -3978,10 +3974,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -4020,10 +4016,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4062,10 +4058,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -4104,10 +4100,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -4146,10 +4142,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -4188,10 +4184,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4230,10 +4226,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -4272,10 +4268,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4314,10 +4310,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4356,10 +4352,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -4398,10 +4394,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -4440,10 +4436,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -4482,10 +4478,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -4524,10 +4520,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -4566,10 +4562,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -4608,10 +4604,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -4650,10 +4646,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -4692,10 +4688,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -4734,10 +4730,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -4776,10 +4772,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -4818,10 +4814,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -4860,10 +4856,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
@@ -4902,10 +4898,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -4944,10 +4940,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -4986,10 +4982,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
@@ -5028,10 +5024,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -5070,10 +5066,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -5112,10 +5108,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vcompletepump+motorodp230460v</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -5154,10 +5150,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
@@ -5196,10 +5192,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -5238,10 +5234,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -5280,10 +5276,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
@@ -5322,10 +5318,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -5364,10 +5360,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -5406,10 +5402,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
@@ -5448,10 +5444,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
@@ -5490,10 +5486,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -5532,10 +5528,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -5574,10 +5570,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -5616,10 +5612,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -5658,10 +5654,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
@@ -5700,10 +5696,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
@@ -5742,10 +5738,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
@@ -5784,10 +5780,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
@@ -5826,10 +5822,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
@@ -5871,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="M124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
@@ -5913,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="M125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
@@ -5952,10 +5948,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
@@ -5994,10 +5990,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
@@ -6036,10 +6032,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
@@ -6078,10 +6074,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
@@ -6120,10 +6116,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
@@ -6181,10 +6177,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
@@ -6223,10 +6219,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
@@ -6265,10 +6261,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
@@ -6307,10 +6303,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vcompletepump+motorodp460v</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
@@ -6349,10 +6345,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vcompletepump+motortefc460v</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
@@ -6394,7 +6390,7 @@
         <v>4</v>
       </c>
       <c r="M136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
@@ -6433,10 +6429,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125460vcompletepump+motorodp460v</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
@@ -6475,10 +6471,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
@@ -6517,10 +6513,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150460vcompletepump+motorodp460v</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
@@ -6559,10 +6555,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
@@ -6601,10 +6597,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200460vcompletepump+motorodp460v</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
@@ -6643,10 +6639,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200230460vcompletepump+motortefc230460v</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
@@ -6685,10 +6681,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
@@ -6727,10 +6723,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
@@ -6769,10 +6765,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
@@ -6811,10 +6807,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
@@ -6856,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="M147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
@@ -6898,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="M148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
@@ -6940,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
@@ -6979,10 +6975,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vcompletepump+motorodp460v</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
@@ -7021,10 +7017,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vcompletepump+motortefc460v</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
@@ -7063,10 +7059,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vcompletepump+motorodp460v</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
@@ -7105,10 +7101,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vcompletepump+motortefc460v</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
@@ -7147,10 +7143,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vcompletepump+motorodp460v</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
@@ -7189,10 +7185,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vcompletepump+motortefc460v</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
@@ -7234,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="M156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
@@ -7273,10 +7269,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
@@ -7315,10 +7311,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
@@ -7357,10 +7353,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
@@ -7399,10 +7395,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
@@ -7441,10 +7437,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
@@ -7483,10 +7479,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
@@ -7525,10 +7521,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
@@ -7567,10 +7563,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
@@ -7609,10 +7605,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
@@ -7651,10 +7647,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
@@ -7693,10 +7689,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
@@ -7735,10 +7731,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
@@ -7777,10 +7773,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
@@ -7819,10 +7815,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
@@ -7861,10 +7857,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
@@ -7903,10 +7899,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
@@ -7945,10 +7941,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
@@ -7987,10 +7983,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
@@ -8029,10 +8025,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
@@ -8071,10 +8067,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
@@ -8113,10 +8109,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
@@ -8155,10 +8151,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
@@ -8197,10 +8193,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
@@ -8239,10 +8235,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
@@ -8281,10 +8277,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
@@ -8323,10 +8319,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
@@ -8365,10 +8361,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
@@ -8407,10 +8403,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
@@ -8449,10 +8445,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
@@ -8491,10 +8487,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
@@ -8533,10 +8529,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
@@ -8575,10 +8571,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
@@ -8617,10 +8613,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
@@ -8659,10 +8655,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
@@ -8701,10 +8697,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
@@ -8743,10 +8739,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
@@ -8785,10 +8781,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
@@ -8827,10 +8823,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
@@ -8888,10 +8884,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
@@ -8930,10 +8926,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
@@ -8972,10 +8968,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
@@ -9014,10 +9010,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
@@ -9056,10 +9052,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
@@ -9098,10 +9094,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
@@ -9140,10 +9136,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
@@ -9182,10 +9178,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
@@ -9224,10 +9220,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
@@ -9266,10 +9262,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
@@ -9308,10 +9304,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
@@ -9350,10 +9346,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
@@ -9392,10 +9388,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
@@ -9434,10 +9430,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
@@ -9476,10 +9472,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
@@ -9518,10 +9514,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
@@ -9560,10 +9556,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
@@ -9602,10 +9598,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
@@ -9644,10 +9640,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
@@ -9686,10 +9682,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
@@ -9728,10 +9724,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
@@ -9770,10 +9766,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
@@ -9812,10 +9808,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
@@ -9854,10 +9850,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M218" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
@@ -9896,10 +9892,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
@@ -9938,10 +9934,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
@@ -9980,10 +9976,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
@@ -10022,10 +10018,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
@@ -10064,10 +10060,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
@@ -10106,10 +10102,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
@@ -10148,10 +10144,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
@@ -10190,10 +10186,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
@@ -10232,10 +10228,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
@@ -10274,10 +10270,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
@@ -10316,10 +10312,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
@@ -10358,10 +10354,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
@@ -10400,10 +10396,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
@@ -10442,10 +10438,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L232" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
@@ -10484,10 +10480,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
@@ -10526,10 +10522,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
@@ -10568,10 +10564,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M235" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
@@ -10610,10 +10606,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L236" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
@@ -10652,10 +10648,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
@@ -10694,10 +10690,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
@@ -10736,10 +10732,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
@@ -10778,10 +10774,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M240" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
@@ -10820,10 +10816,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.35">
@@ -10862,10 +10858,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
@@ -10904,10 +10900,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L243" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.35">
@@ -10946,10 +10942,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L244" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M244" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
@@ -10988,10 +10984,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
@@ -11030,10 +11026,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L246" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M246" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
@@ -11072,10 +11068,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M247" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
@@ -11114,10 +11110,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M248" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
@@ -11156,10 +11152,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
@@ -11198,10 +11194,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L250" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.35">
@@ -11240,10 +11236,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M251" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
@@ -11282,10 +11278,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.35">
@@ -11324,10 +11320,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.35">
@@ -11366,10 +11362,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M254" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.35">
@@ -11408,10 +11404,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M255" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.35">
@@ -11450,10 +11446,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M256" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.35">
@@ -11492,10 +11488,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M257" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
@@ -11534,10 +11530,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M258" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
@@ -11595,10 +11591,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
@@ -11637,10 +11633,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M260" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
@@ -11679,10 +11675,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vcompleteassemblyminusmotorodp230460v</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M261" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
@@ -11721,10 +11717,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L262" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M262" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.35">
@@ -11763,10 +11759,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L263" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.35">
@@ -11805,10 +11801,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M264" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
@@ -11847,10 +11843,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L265" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.35">
@@ -11889,10 +11885,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M266" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
@@ -11931,10 +11927,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L267" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M267" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
@@ -11973,10 +11969,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L268" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M268" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
@@ -12015,10 +12011,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M269" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
@@ -12057,10 +12053,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M270" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
@@ -12099,10 +12095,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L271" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
@@ -12141,10 +12137,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L272" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
@@ -12183,10 +12179,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
@@ -12225,10 +12221,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M274" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
@@ -12267,10 +12263,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
@@ -12309,10 +12305,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M276" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
@@ -12351,10 +12347,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M277" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
@@ -12393,10 +12389,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M278" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
@@ -12438,7 +12434,7 @@
         <v>4</v>
       </c>
       <c r="M279" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
@@ -12480,7 +12476,7 @@
         <v>4</v>
       </c>
       <c r="M280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
@@ -12519,10 +12515,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M281" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
@@ -12561,10 +12557,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M282" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
@@ -12603,10 +12599,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L283" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M283" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
@@ -12645,10 +12641,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M284" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
@@ -12687,10 +12683,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L285" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M285" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
@@ -12729,10 +12725,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L286" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M286" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
@@ -12771,10 +12767,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L287" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
@@ -12813,10 +12809,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L288" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M288" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
@@ -12855,10 +12851,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M289" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
@@ -12897,10 +12893,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L290" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M290" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
@@ -12942,7 +12938,7 @@
         <v>4</v>
       </c>
       <c r="M291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
@@ -12981,10 +12977,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M292" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
@@ -13023,10 +13019,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L293" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M293" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
@@ -13065,10 +13061,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L294" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M294" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.35">
@@ -13107,10 +13103,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L295" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M295" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.35">
@@ -13149,10 +13145,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L296" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M296" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
@@ -13191,10 +13187,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200230460vcompleteassemblyminusmotortefc230460v</v>
       </c>
       <c r="L297" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.35">
@@ -13233,10 +13229,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M298" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.35">
@@ -13275,10 +13271,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L299" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M299" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.35">
@@ -13317,10 +13313,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L300" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.35">
@@ -13359,10 +13355,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M301" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
@@ -13404,7 +13400,7 @@
         <v>4</v>
       </c>
       <c r="M302" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.35">
@@ -13446,7 +13442,7 @@
         <v>4</v>
       </c>
       <c r="M303" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.35">
@@ -13488,7 +13484,7 @@
         <v>4</v>
       </c>
       <c r="M304" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
@@ -13527,10 +13523,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M305" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.35">
@@ -13569,10 +13565,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L306" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.35">
@@ -13611,10 +13607,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L307" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.35">
@@ -13653,10 +13649,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M308" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.35">
@@ -13695,10 +13691,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vcompleteassemblyminusmotorodp460v</v>
       </c>
       <c r="L309" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M309" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
@@ -13737,10 +13733,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vcompleteassemblyminusmotortefc460v</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M310" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.35">
@@ -13782,7 +13778,7 @@
         <v>4</v>
       </c>
       <c r="M311" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.35">
@@ -13821,10 +13817,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L312" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M312" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.35">
@@ -13863,10 +13859,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv50230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M313" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.35">
@@ -13905,10 +13901,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M314" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
@@ -13947,10 +13943,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv60230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L315" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M315" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
@@ -13989,10 +13985,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L316" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.35">
@@ -14031,10 +14027,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv75230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M317" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.35">
@@ -14073,10 +14069,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L318" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M318" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.35">
@@ -14115,10 +14111,10 @@
         <v>atmosteraschhemechanicalseal8x6x13sv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L319" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M319" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.35">
@@ -14157,10 +14153,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L320" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M320" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
@@ -14199,10 +14195,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L321" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M321" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
@@ -14241,10 +14237,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L322" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M322" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
@@ -14302,10 +14298,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M323" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
@@ -14344,10 +14340,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L324" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
@@ -14386,10 +14382,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L325" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M325" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
@@ -14428,10 +14424,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L326" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M326" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
@@ -14470,10 +14466,10 @@
         <v>atmosteraschhemechanicalseal10x6x16dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M327" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
@@ -14512,10 +14508,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M328" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
@@ -14554,10 +14550,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L329" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M329" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
@@ -14596,10 +14592,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M330" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
@@ -14638,10 +14634,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M331" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
@@ -14680,10 +14676,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M332" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
@@ -14722,10 +14718,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M333" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
@@ -14764,10 +14760,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M334" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
@@ -14806,10 +14802,10 @@
         <v>atmosteraschhemechanicalseal10x6x17sv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M335" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
@@ -14848,10 +14844,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
@@ -14890,10 +14886,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
@@ -14932,10 +14928,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M338" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.35">
@@ -14974,10 +14970,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M339" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.35">
@@ -15016,10 +15012,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M340" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
@@ -15058,10 +15054,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M341" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -15100,10 +15096,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L342" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M342" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.35">
@@ -15142,10 +15138,10 @@
         <v>atmosteraschhemechanicalseal10x6x19sv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M343" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.35">
@@ -15184,10 +15180,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L344" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M344" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.35">
@@ -15226,10 +15222,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L345" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.35">
@@ -15268,10 +15264,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L346" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M346" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.35">
@@ -15310,10 +15306,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M347" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
@@ -15352,10 +15348,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vpumpendonlyodp460v</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M348" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
@@ -15394,10 +15390,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv450460vpumpendonlytefc460v</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.35">
@@ -15436,10 +15432,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vpumpendonlyodp460v</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.35">
@@ -15478,10 +15474,10 @@
         <v>atmosteraschhemechanicalseal10x6x20dv500460vpumpendonlytefc460v</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M351" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.35">
@@ -15520,10 +15516,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M352" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.35">
@@ -15562,10 +15558,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M353" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.35">
@@ -15604,10 +15600,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M354" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.35">
@@ -15646,10 +15642,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L355" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.35">
@@ -15688,10 +15684,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.35">
@@ -15730,10 +15726,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M357" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.35">
@@ -15772,10 +15768,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vpumpendonlyodp460v</v>
       </c>
       <c r="L358" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M358" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.35">
@@ -15814,10 +15810,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv450460vpumpendonlytefc460v</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M359" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.35">
@@ -15856,10 +15852,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vpumpendonlyodp460v</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M360" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.35">
@@ -15898,10 +15894,10 @@
         <v>atmosteraschhemechanicalseal10x6x21sv500460vpumpendonlytefc460v</v>
       </c>
       <c r="L361" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M361" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.35">
@@ -15940,10 +15936,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L362" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M362" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.35">
@@ -15982,10 +15978,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L363" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M363" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.35">
@@ -16024,10 +16020,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L364" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M364" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.35">
@@ -16066,10 +16062,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M365" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.35">
@@ -16108,10 +16104,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vpumpendonlyodp460v</v>
       </c>
       <c r="L366" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M366" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.35">
@@ -16150,10 +16146,10 @@
         <v>atmosteraschhemechanicalseal10x6x22dv500460vpumpendonlytefc460v</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M367" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.35">
@@ -16192,10 +16188,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L368" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M368" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.35">
@@ -16234,10 +16230,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv40230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L369" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M369" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.35">
@@ -16276,10 +16272,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L370" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M370" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.35">
@@ -16318,10 +16314,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv50230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L371" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M371" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.35">
@@ -16360,10 +16356,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L372" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.35">
@@ -16402,10 +16398,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv60230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L373" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M373" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.35">
@@ -16444,10 +16440,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L374" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M374" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.35">
@@ -16486,10 +16482,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv75230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L375" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.35">
@@ -16528,10 +16524,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L376" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M376" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.35">
@@ -16570,10 +16566,10 @@
         <v>atmosteraschhemechanicalseal10x8x12sv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L377" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M377" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.35">
@@ -16612,10 +16608,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L378" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.35">
@@ -16654,10 +16650,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L379" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M379" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.35">
@@ -16696,10 +16692,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L380" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M380" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.35">
@@ -16738,10 +16734,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L381" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M381" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.35">
@@ -16780,10 +16776,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L382" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M382" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.35">
@@ -16822,10 +16818,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L383" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M383" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.35">
@@ -16864,10 +16860,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L384" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M384" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.35">
@@ -16906,10 +16902,10 @@
         <v>atmosteraschhemechanicalseal10x8x14dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L385" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M385" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.35">
@@ -16948,10 +16944,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L386" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M386" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.35">
@@ -17009,10 +17005,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L387" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M387" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.35">
@@ -17051,10 +17047,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L388" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M388" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.35">
@@ -17093,10 +17089,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L389" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M389" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.35">
@@ -17135,10 +17131,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L390" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M390" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.35">
@@ -17177,10 +17173,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L391" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M391" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.35">
@@ -17219,10 +17215,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M392" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.35">
@@ -17261,10 +17257,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L393" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M393" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.35">
@@ -17303,10 +17299,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L394" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M394" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.35">
@@ -17345,10 +17341,10 @@
         <v>atmosteraschhemechanicalseal12x8x15sv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L395" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M395" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.35">
@@ -17387,10 +17383,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L396" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M396" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.35">
@@ -17429,10 +17425,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L397" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M397" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.35">
@@ -17471,10 +17467,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L398" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M398" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.35">
@@ -17513,10 +17509,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L399" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M399" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.35">
@@ -17555,10 +17551,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L400" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M400" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.35">
@@ -17597,10 +17593,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L401" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M401" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.35">
@@ -17639,10 +17635,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L402" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M402" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.35">
@@ -17681,10 +17677,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L403" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M403" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.35">
@@ -17723,10 +17719,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L404" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M404" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.35">
@@ -17765,10 +17761,10 @@
         <v>atmosteraschhemechanicalseal12x8x18sv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L405" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M405" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.35">
@@ -17807,10 +17803,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L406" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M406" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.35">
@@ -17849,10 +17845,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M407" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.35">
@@ -17891,10 +17887,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L408" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M408" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.35">
@@ -17933,10 +17929,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L409" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M409" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.35">
@@ -17975,10 +17971,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L410" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M410" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.35">
@@ -18017,10 +18013,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M411" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.35">
@@ -18059,10 +18055,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L412" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M412" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.35">
@@ -18101,10 +18097,10 @@
         <v>atmosteraschhemechanicalseal12x10x13dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L413" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M413" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.35">
@@ -18143,10 +18139,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M414" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.35">
@@ -18185,10 +18181,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv100230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L415" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M415" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.35">
@@ -18227,10 +18223,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vpumpendonlyodp230460v</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M416" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.35">
@@ -18269,10 +18265,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M417" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.35">
@@ -18311,10 +18307,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M418" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.35">
@@ -18353,10 +18349,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L419" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M419" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.35">
@@ -18395,10 +18391,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M420" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.35">
@@ -18437,10 +18433,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M421" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.35">
@@ -18479,10 +18475,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M422" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.35">
@@ -18521,10 +18517,10 @@
         <v>atmosteraschhemechanicalseal12x10x14sv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L423" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M423" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.35">
@@ -18563,10 +18559,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L424" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M424" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.35">
@@ -18605,10 +18601,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M425" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.35">
@@ -18647,10 +18643,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M426" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.35">
@@ -18689,10 +18685,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M427" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.35">
@@ -18731,10 +18727,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L428" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M428" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.35">
@@ -18773,10 +18769,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L429" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M429" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.35">
@@ -18815,10 +18811,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L430" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M430" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.35">
@@ -18857,10 +18853,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M431" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.35">
@@ -18899,10 +18895,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M432" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.35">
@@ -18941,10 +18937,10 @@
         <v>atmosteraschhemechanicalseal14x10x17dv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L433" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M433" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.35">
@@ -18986,7 +18982,7 @@
         <v>4</v>
       </c>
       <c r="M434" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.35">
@@ -19028,7 +19024,7 @@
         <v>4</v>
       </c>
       <c r="M435" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.35">
@@ -19067,10 +19063,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L436" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M436" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.35">
@@ -19109,10 +19105,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L437" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M437" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.35">
@@ -19151,10 +19147,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L438" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M438" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.35">
@@ -19193,10 +19189,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L439" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M439" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.35">
@@ -19235,10 +19231,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L440" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M440" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.35">
@@ -19277,10 +19273,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L441" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M441" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.35">
@@ -19319,10 +19315,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M442" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.35">
@@ -19361,10 +19357,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M443" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.35">
@@ -19403,10 +19399,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vpumpendonlyodp460v</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M444" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.35">
@@ -19445,10 +19441,10 @@
         <v>atmosteraschhemechanicalseal16x12x16dv400460vpumpendonlytefc460v</v>
       </c>
       <c r="L445" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M445" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.35">
@@ -19490,7 +19486,7 @@
         <v>4</v>
       </c>
       <c r="M446" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.35">
@@ -19529,10 +19525,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125460vpumpendonlyodp460v</v>
       </c>
       <c r="L447" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M447" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.35">
@@ -19571,10 +19567,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv125230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L448" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M448" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.35">
@@ -19613,10 +19609,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150460vpumpendonlyodp460v</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M449" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.35">
@@ -19655,10 +19651,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv150230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L450" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M450" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.35">
@@ -19716,10 +19712,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200460vpumpendonlyodp460v</v>
       </c>
       <c r="L451" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M451" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.35">
@@ -19758,10 +19754,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv200230460vpumpendonlytefc230460v</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M452" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.35">
@@ -19800,10 +19796,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M453" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.35">
@@ -19842,10 +19838,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L454" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M454" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.35">
@@ -19884,10 +19880,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L455" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M455" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.35">
@@ -19926,10 +19922,10 @@
         <v>atmosteraschhemechanicalseal18x14x19dv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L456" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M456" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.35">
@@ -19971,7 +19967,7 @@
         <v>4</v>
       </c>
       <c r="M457" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.35">
@@ -20013,7 +20009,7 @@
         <v>4</v>
       </c>
       <c r="M458" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.35">
@@ -20055,7 +20051,7 @@
         <v>4</v>
       </c>
       <c r="M459" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.35">
@@ -20094,10 +20090,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vpumpendonlyodp460v</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M460" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.35">
@@ -20136,10 +20132,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv250460vpumpendonlytefc460v</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M461" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.35">
@@ -20178,10 +20174,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vpumpendonlyodp460v</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M462" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.35">
@@ -20220,10 +20216,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv300460vpumpendonlytefc460v</v>
       </c>
       <c r="L463" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M463" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.35">
@@ -20262,10 +20258,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vpumpendonlyodp460v</v>
       </c>
       <c r="L464" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M464" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.35">
@@ -20304,10 +20300,10 @@
         <v>atmosteraschhemechanicalseal20x16x21dv350460vpumpendonlytefc460v</v>
       </c>
       <c r="L465" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M465" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.35">
@@ -20349,7 +20345,7 @@
         <v>4</v>
       </c>
       <c r="M466" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
